--- a/experiment_results/DataV2_NF_0.5/BankAccountTP/DISABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
+++ b/experiment_results/DataV2_NF_0.5/BankAccountTP/DISABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
@@ -1449,19 +1449,19 @@
         <v>48</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>10.52631578947368</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E20">
         <v>26</v>
       </c>
       <c r="F20">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G20">
-        <v>17.10526315789474</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="H20">
         <v>16</v>
@@ -2136,19 +2136,19 @@
         <v>16</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>10.52631578947368</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E38">
         <v>26</v>
       </c>
       <c r="F38">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G38">
-        <v>17.10526315789474</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="H38">
         <v>16</v>
@@ -4283,19 +4283,19 @@
         <v>48</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>14.47368421052632</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="E20">
         <v>26</v>
       </c>
       <c r="F20">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G20">
-        <v>17.10526315789474</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="H20">
         <v>16</v>
@@ -4476,19 +4476,19 @@
         <v>41</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>7.894736842105263</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G25">
-        <v>7.894736842105263</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -4628,19 +4628,19 @@
         <v>48</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E29">
         <v>29</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>3.947368421052631</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H29">
         <v>5</v>
@@ -4970,19 +4970,19 @@
         <v>16</v>
       </c>
       <c r="C38">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D38">
-        <v>14.47368421052632</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="E38">
         <v>26</v>
       </c>
       <c r="F38">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G38">
-        <v>17.10526315789474</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="H38">
         <v>16</v>
@@ -5084,19 +5084,19 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>10.52631578947368</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="E41">
         <v>14</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G41">
-        <v>11.84210526315789</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="H41">
         <v>9</v>
@@ -5160,19 +5160,19 @@
         <v>37</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>5.263157894736842</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E43">
         <v>12</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G43">
-        <v>6.578947368421052</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H43">
         <v>6</v>
@@ -5730,19 +5730,19 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D58">
-        <v>5.263157894736842</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="E58">
         <v>23</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G58">
-        <v>5.263157894736842</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H58">
         <v>5</v>
@@ -5806,19 +5806,19 @@
         <v>27</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>3.947368421052631</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E60">
         <v>26</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G60">
-        <v>3.947368421052631</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="H60">
         <v>5</v>
@@ -6265,19 +6265,19 @@
         <v>31</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D72">
-        <v>6.578947368421052</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="E72">
         <v>22</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G72">
-        <v>7.894736842105263</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="H72">
         <v>6</v>
@@ -7117,19 +7117,19 @@
         <v>48</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>14.47368421052632</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="E20">
         <v>26</v>
       </c>
       <c r="F20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>17.10526315789474</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="H20">
         <v>16</v>
@@ -7500,10 +7500,10 @@
         <v>61</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>8.860759493670885</v>
+        <v>7.59493670886076</v>
       </c>
       <c r="E30">
         <v>32</v>
@@ -7804,19 +7804,19 @@
         <v>16</v>
       </c>
       <c r="C38">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38">
-        <v>14.47368421052632</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="E38">
         <v>26</v>
       </c>
       <c r="F38">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G38">
-        <v>17.10526315789474</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="H38">
         <v>16</v>
@@ -7918,19 +7918,19 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>10.52631578947368</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="E41">
         <v>14</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G41">
-        <v>11.84210526315789</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="H41">
         <v>9</v>
@@ -7994,10 +7994,10 @@
         <v>37</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>5.263157894736842</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E43">
         <v>12</v>
@@ -8032,10 +8032,10 @@
         <v>16</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E44">
         <v>42</v>
@@ -8108,10 +8108,10 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46">
-        <v>5.263157894736842</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E46">
         <v>34</v>
@@ -8564,19 +8564,19 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>5.263157894736842</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E58">
         <v>23</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G58">
-        <v>5.263157894736842</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="H58">
         <v>5</v>
@@ -8649,10 +8649,10 @@
         <v>26</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G60">
-        <v>6.578947368421052</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H60">
         <v>5</v>
@@ -9457,19 +9457,19 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D7">
-        <v>14.47368421052632</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="G7">
-        <v>14.47368421052632</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="H7">
         <v>57</v>
@@ -9913,19 +9913,19 @@
         <v>46</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D19">
-        <v>14.47368421052632</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="G19">
-        <v>14.47368421052632</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="H19">
         <v>57</v>
@@ -9960,10 +9960,10 @@
         <v>26</v>
       </c>
       <c r="F20">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G20">
-        <v>44.73684210526316</v>
+        <v>72.36842105263158</v>
       </c>
       <c r="H20">
         <v>68</v>
@@ -10258,19 +10258,19 @@
         <v>24</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D28">
-        <v>27.63157894736842</v>
+        <v>55.26315789473685</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G28">
-        <v>27.63157894736842</v>
+        <v>55.26315789473685</v>
       </c>
       <c r="H28">
         <v>60</v>
@@ -10296,19 +10296,19 @@
         <v>48</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>5.263157894736842</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="E29">
         <v>29</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G29">
-        <v>13.1578947368421</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="H29">
         <v>6</v>
@@ -10334,10 +10334,10 @@
         <v>61</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>12.65822784810127</v>
+        <v>8.860759493670885</v>
       </c>
       <c r="E30">
         <v>32</v>
@@ -10562,10 +10562,10 @@
         <v>69</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E36">
         <v>34</v>
@@ -10647,10 +10647,10 @@
         <v>26</v>
       </c>
       <c r="F38">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G38">
-        <v>44.73684210526316</v>
+        <v>72.36842105263158</v>
       </c>
       <c r="H38">
         <v>68</v>
@@ -10913,10 +10913,10 @@
         <v>24</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -10942,10 +10942,10 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>6.578947368421052</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="E46">
         <v>34</v>
@@ -11369,10 +11369,10 @@
         <v>24</v>
       </c>
       <c r="F57">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G57">
-        <v>9.210526315789473</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="H57">
         <v>5</v>
@@ -11857,19 +11857,19 @@
         <v>85</v>
       </c>
       <c r="C70">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D70">
-        <v>23.68421052631579</v>
+        <v>48.68421052631579</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G70">
-        <v>23.68421052631579</v>
+        <v>48.68421052631579</v>
       </c>
       <c r="H70">
         <v>37</v>
@@ -12291,19 +12291,19 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>14.47368421052632</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>14.47368421052632</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="H7">
         <v>57</v>
@@ -12747,19 +12747,19 @@
         <v>46</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>14.47368421052632</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>14.47368421052632</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="H19">
         <v>57</v>
@@ -12785,19 +12785,19 @@
         <v>48</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>21.05263157894737</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E20">
         <v>26</v>
       </c>
       <c r="F20">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>44.73684210526316</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="H20">
         <v>68</v>
@@ -13092,19 +13092,19 @@
         <v>24</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>27.63157894736842</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G28">
-        <v>27.63157894736842</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H28">
         <v>60</v>
@@ -13130,19 +13130,19 @@
         <v>48</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E29">
         <v>29</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>3.947368421052631</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H29">
         <v>6</v>
@@ -13168,19 +13168,19 @@
         <v>61</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>7.59493670886076</v>
+        <v>8.860759493670885</v>
       </c>
       <c r="E30">
         <v>32</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G30">
-        <v>10.12658227848101</v>
+        <v>11.39240506329114</v>
       </c>
       <c r="H30">
         <v>13</v>
@@ -13405,10 +13405,10 @@
         <v>34</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>5.263157894736842</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -13472,19 +13472,19 @@
         <v>16</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>21.05263157894737</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E38">
         <v>26</v>
       </c>
       <c r="F38">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G38">
-        <v>44.73684210526316</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="H38">
         <v>68</v>
@@ -13586,10 +13586,10 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>10.52631578947368</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="E41">
         <v>14</v>
@@ -13671,10 +13671,10 @@
         <v>12</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G43">
-        <v>6.578947368421052</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H43">
         <v>39</v>
@@ -13776,19 +13776,19 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>6.578947368421052</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E46">
         <v>34</v>
       </c>
       <c r="F46">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G46">
-        <v>9.210526315789473</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="H46">
         <v>7</v>
@@ -13890,10 +13890,10 @@
         <v>83</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D49">
-        <v>9.210526315789473</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="E49">
         <v>11</v>
@@ -14118,19 +14118,19 @@
         <v>48</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55">
-        <v>6.578947368421052</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G55">
-        <v>6.578947368421052</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H55">
         <v>6</v>
@@ -14691,19 +14691,19 @@
         <v>85</v>
       </c>
       <c r="C70">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D70">
-        <v>23.68421052631579</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G70">
-        <v>23.68421052631579</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H70">
         <v>37</v>
@@ -14973,19 +14973,19 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E3">
         <v>40</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>3.947368421052631</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -16543,10 +16543,10 @@
         <v>42</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G44">
-        <v>3.947368421052631</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -16572,19 +16572,19 @@
         <v>57</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E45">
         <v>24</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -16610,19 +16610,19 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46">
-        <v>5.263157894736842</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E46">
         <v>34</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G46">
-        <v>6.578947368421052</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="H46">
         <v>5</v>
@@ -17075,10 +17075,10 @@
         <v>23</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G58">
-        <v>5.263157894736842</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H58">
         <v>4</v>
@@ -18111,10 +18111,10 @@
         <v>31</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>6.578947368421052</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="E11">
         <v>26</v>
@@ -18646,19 +18646,19 @@
         <v>41</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>7.894736842105263</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G25">
-        <v>7.894736842105263</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -19254,19 +19254,19 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D41">
-        <v>13.1578947368421</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="E41">
         <v>14</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G41">
-        <v>11.84210526315789</v>
+        <v>18.42105263157895</v>
       </c>
       <c r="H41">
         <v>9</v>
@@ -19900,19 +19900,19 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58">
-        <v>3.947368421052631</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E58">
         <v>23</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G58">
-        <v>3.947368421052631</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -20435,19 +20435,19 @@
         <v>31</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D72">
-        <v>6.578947368421052</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="E72">
         <v>22</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G72">
-        <v>7.894736842105263</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="H72">
         <v>6</v>
@@ -23627,19 +23627,19 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>14.47368421052632</v>
+        <v>59.21052631578947</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G7">
-        <v>14.47368421052632</v>
+        <v>59.21052631578947</v>
       </c>
       <c r="H7">
         <v>70</v>
@@ -23788,10 +23788,10 @@
         <v>26</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>7.894736842105263</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="H11">
         <v>52</v>
@@ -24083,19 +24083,19 @@
         <v>46</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D19">
-        <v>14.47368421052632</v>
+        <v>59.21052631578947</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G19">
-        <v>14.47368421052632</v>
+        <v>59.21052631578947</v>
       </c>
       <c r="H19">
         <v>70</v>
@@ -24130,10 +24130,10 @@
         <v>26</v>
       </c>
       <c r="F20">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G20">
-        <v>44.73684210526316</v>
+        <v>64.47368421052632</v>
       </c>
       <c r="H20">
         <v>75</v>
@@ -24285,10 +24285,10 @@
         <v>17</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G24">
-        <v>10.12658227848101</v>
+        <v>17.72151898734177</v>
       </c>
       <c r="H24">
         <v>47</v>
@@ -24314,19 +24314,19 @@
         <v>41</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>7.894736842105263</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G25">
-        <v>7.894736842105263</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="H25">
         <v>48</v>
@@ -24428,19 +24428,19 @@
         <v>24</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>27.63157894736842</v>
+        <v>46.05263157894737</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G28">
-        <v>27.63157894736842</v>
+        <v>46.05263157894737</v>
       </c>
       <c r="H28">
         <v>70</v>
@@ -24779,10 +24779,10 @@
         <v>24</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G37">
-        <v>12.65822784810127</v>
+        <v>16.45569620253164</v>
       </c>
       <c r="H37">
         <v>47</v>
@@ -24817,10 +24817,10 @@
         <v>26</v>
       </c>
       <c r="F38">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G38">
-        <v>44.73684210526316</v>
+        <v>64.47368421052632</v>
       </c>
       <c r="H38">
         <v>75</v>
@@ -24922,19 +24922,19 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>10.52631578947368</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="E41">
         <v>14</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G41">
-        <v>11.84210526315789</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="H41">
         <v>49</v>
@@ -25007,10 +25007,10 @@
         <v>12</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G43">
-        <v>10.52631578947368</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="H43">
         <v>57</v>
@@ -25083,10 +25083,10 @@
         <v>24</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H45">
         <v>26</v>
@@ -25311,10 +25311,10 @@
         <v>11</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G51">
-        <v>5.263157894736842</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="H51">
         <v>34</v>
@@ -25843,10 +25843,10 @@
         <v>26</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G65">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H65">
         <v>28</v>
@@ -25960,10 +25960,10 @@
         <v>26</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G68">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H68">
         <v>28</v>
@@ -26027,19 +26027,19 @@
         <v>85</v>
       </c>
       <c r="C70">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D70">
-        <v>23.68421052631579</v>
+        <v>27.63157894736842</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G70">
-        <v>23.68421052631579</v>
+        <v>27.63157894736842</v>
       </c>
       <c r="H70">
         <v>54</v>
@@ -26103,10 +26103,10 @@
         <v>31</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D72">
-        <v>6.578947368421052</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="E72">
         <v>22</v>
@@ -26955,19 +26955,19 @@
         <v>48</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>11.84210526315789</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="E20">
         <v>26</v>
       </c>
       <c r="F20">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G20">
-        <v>17.10526315789474</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="H20">
         <v>16</v>
@@ -27642,19 +27642,19 @@
         <v>16</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38">
-        <v>11.84210526315789</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="E38">
         <v>26</v>
       </c>
       <c r="F38">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G38">
-        <v>17.10526315789474</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="H38">
         <v>16</v>
@@ -27765,10 +27765,10 @@
         <v>14</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G41">
-        <v>11.84210526315789</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="H41">
         <v>9</v>
@@ -28402,10 +28402,10 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D58">
-        <v>5.263157894736842</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="E58">
         <v>23</v>
@@ -28478,19 +28478,19 @@
         <v>27</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>3.947368421052631</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E60">
         <v>26</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G60">
-        <v>3.947368421052631</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="H60">
         <v>5</v>
@@ -29789,19 +29789,19 @@
         <v>48</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>14.47368421052632</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="E20">
         <v>26</v>
       </c>
       <c r="F20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>17.10526315789474</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="H20">
         <v>16</v>
@@ -30476,19 +30476,19 @@
         <v>16</v>
       </c>
       <c r="C38">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D38">
-        <v>14.47368421052632</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="E38">
         <v>26</v>
       </c>
       <c r="F38">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G38">
-        <v>17.10526315789474</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="H38">
         <v>16</v>
@@ -30590,19 +30590,19 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>10.52631578947368</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="E41">
         <v>14</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G41">
-        <v>11.84210526315789</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="H41">
         <v>9</v>
@@ -30666,19 +30666,19 @@
         <v>37</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>5.263157894736842</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E43">
         <v>12</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G43">
-        <v>6.578947368421052</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H43">
         <v>6</v>
@@ -31236,19 +31236,19 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>5.263157894736842</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E58">
         <v>23</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G58">
-        <v>5.263157894736842</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="H58">
         <v>5</v>
@@ -32623,19 +32623,19 @@
         <v>48</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>7.894736842105263</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E20">
         <v>26</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>11.84210526315789</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="H20">
         <v>14</v>
@@ -33310,19 +33310,19 @@
         <v>16</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>7.894736842105263</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E38">
         <v>26</v>
       </c>
       <c r="F38">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G38">
-        <v>11.84210526315789</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="H38">
         <v>14</v>
@@ -33433,10 +33433,10 @@
         <v>14</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G41">
-        <v>11.84210526315789</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="H41">
         <v>9</v>
@@ -34070,10 +34070,10 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>3.947368421052631</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E58">
         <v>23</v>
@@ -34963,19 +34963,19 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>15.78947368421053</v>
+        <v>85.52631578947368</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="G7">
-        <v>15.78947368421053</v>
+        <v>85.52631578947368</v>
       </c>
       <c r="H7">
         <v>70</v>
@@ -35124,10 +35124,10 @@
         <v>26</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>7.894736842105263</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="H11">
         <v>52</v>
@@ -35191,19 +35191,19 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>9.210526315789473</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>9.210526315789473</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="H13">
         <v>31</v>
@@ -35305,10 +35305,10 @@
         <v>41</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>10.52631578947368</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E16">
         <v>24</v>
@@ -35381,19 +35381,19 @@
         <v>43</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>9.210526315789473</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G18">
-        <v>9.210526315789473</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="H18">
         <v>29</v>
@@ -35419,19 +35419,19 @@
         <v>46</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D19">
-        <v>15.78947368421053</v>
+        <v>85.52631578947368</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="G19">
-        <v>15.78947368421053</v>
+        <v>85.52631578947368</v>
       </c>
       <c r="H19">
         <v>70</v>
@@ -35457,19 +35457,19 @@
         <v>48</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>31.57894736842105</v>
+        <v>34.21052631578947</v>
       </c>
       <c r="E20">
         <v>26</v>
       </c>
       <c r="F20">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G20">
-        <v>44.73684210526316</v>
+        <v>72.36842105263158</v>
       </c>
       <c r="H20">
         <v>75</v>
@@ -35621,10 +35621,10 @@
         <v>17</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G24">
-        <v>10.12658227848101</v>
+        <v>12.65822784810127</v>
       </c>
       <c r="H24">
         <v>47</v>
@@ -35764,19 +35764,19 @@
         <v>24</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D28">
-        <v>27.63157894736842</v>
+        <v>55.26315789473685</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G28">
-        <v>27.63157894736842</v>
+        <v>55.26315789473685</v>
       </c>
       <c r="H28">
         <v>70</v>
@@ -35840,19 +35840,19 @@
         <v>61</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>21.51898734177215</v>
+        <v>13.92405063291139</v>
       </c>
       <c r="E30">
         <v>32</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30">
-        <v>12.65822784810127</v>
+        <v>11.39240506329114</v>
       </c>
       <c r="H30">
         <v>55</v>
@@ -36115,10 +36115,10 @@
         <v>24</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G37">
-        <v>12.65822784810127</v>
+        <v>16.45569620253164</v>
       </c>
       <c r="H37">
         <v>47</v>
@@ -36144,19 +36144,19 @@
         <v>16</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D38">
-        <v>31.57894736842105</v>
+        <v>34.21052631578947</v>
       </c>
       <c r="E38">
         <v>26</v>
       </c>
       <c r="F38">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G38">
-        <v>44.73684210526316</v>
+        <v>72.36842105263158</v>
       </c>
       <c r="H38">
         <v>75</v>
@@ -36267,10 +36267,10 @@
         <v>14</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G41">
-        <v>11.84210526315789</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="H41">
         <v>49</v>
@@ -36343,10 +36343,10 @@
         <v>12</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G43">
-        <v>10.52631578947368</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="H43">
         <v>57</v>
@@ -36609,10 +36609,10 @@
         <v>2</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G50">
-        <v>5.263157894736842</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="H50">
         <v>47</v>
@@ -36647,10 +36647,10 @@
         <v>11</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G51">
-        <v>5.263157894736842</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="H51">
         <v>34</v>
@@ -36790,19 +36790,19 @@
         <v>48</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>6.578947368421052</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G55">
-        <v>6.578947368421052</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H55">
         <v>57</v>
@@ -37179,10 +37179,10 @@
         <v>26</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G65">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H65">
         <v>28</v>
@@ -37296,10 +37296,10 @@
         <v>26</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G68">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H68">
         <v>28</v>
@@ -37363,19 +37363,19 @@
         <v>85</v>
       </c>
       <c r="C70">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D70">
-        <v>23.68421052631579</v>
+        <v>51.31578947368421</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G70">
-        <v>23.68421052631579</v>
+        <v>51.31578947368421</v>
       </c>
       <c r="H70">
         <v>54</v>
@@ -37401,10 +37401,10 @@
         <v>106</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>2.631578947368421</v>
+        <v>1.31578947368421</v>
       </c>
       <c r="E71">
         <v>26</v>
@@ -37645,10 +37645,10 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>18.42105263157895</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E3">
         <v>40</v>
@@ -37797,19 +37797,19 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D7">
-        <v>17.10526315789474</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="G7">
-        <v>17.10526315789474</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="H7">
         <v>70</v>
@@ -37873,10 +37873,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>5.263157894736842</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E9">
         <v>28</v>
@@ -37949,19 +37949,19 @@
         <v>31</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>22.36842105263158</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E11">
         <v>26</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>7.894736842105263</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="H11">
         <v>52</v>
@@ -38025,19 +38025,19 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>9.210526315789473</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>9.210526315789473</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="H13">
         <v>31</v>
@@ -38139,10 +38139,10 @@
         <v>41</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>10.52631578947368</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E16">
         <v>24</v>
@@ -38215,19 +38215,19 @@
         <v>43</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>9.210526315789473</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G18">
-        <v>9.210526315789473</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="H18">
         <v>29</v>
@@ -38253,19 +38253,19 @@
         <v>46</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D19">
-        <v>17.10526315789474</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="G19">
-        <v>17.10526315789474</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="H19">
         <v>70</v>
@@ -38300,10 +38300,10 @@
         <v>26</v>
       </c>
       <c r="F20">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G20">
-        <v>44.73684210526316</v>
+        <v>72.36842105263158</v>
       </c>
       <c r="H20">
         <v>75</v>
@@ -38408,19 +38408,19 @@
         <v>20</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>6.578947368421052</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E23">
         <v>12</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>6.578947368421052</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H23">
         <v>34</v>
@@ -38455,10 +38455,10 @@
         <v>17</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G24">
-        <v>10.12658227848101</v>
+        <v>12.65822784810127</v>
       </c>
       <c r="H24">
         <v>47</v>
@@ -38560,10 +38560,10 @@
         <v>57</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>9.210526315789473</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E27">
         <v>22</v>
@@ -38598,19 +38598,19 @@
         <v>24</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D28">
-        <v>27.63157894736842</v>
+        <v>55.26315789473685</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G28">
-        <v>27.63157894736842</v>
+        <v>55.26315789473685</v>
       </c>
       <c r="H28">
         <v>70</v>
@@ -38636,10 +38636,10 @@
         <v>48</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>6.578947368421052</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="E29">
         <v>29</v>
@@ -38674,19 +38674,19 @@
         <v>61</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>22.78481012658228</v>
+        <v>8.860759493670885</v>
       </c>
       <c r="E30">
         <v>32</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30">
-        <v>12.65822784810127</v>
+        <v>11.39240506329114</v>
       </c>
       <c r="H30">
         <v>55</v>
@@ -38750,19 +38750,19 @@
         <v>24</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>11.84210526315789</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G32">
-        <v>10.52631578947368</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="H32">
         <v>35</v>
@@ -38902,19 +38902,19 @@
         <v>69</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E36">
         <v>34</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G36">
-        <v>2.631578947368421</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H36">
         <v>33</v>
@@ -38987,10 +38987,10 @@
         <v>26</v>
       </c>
       <c r="F38">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G38">
-        <v>44.73684210526316</v>
+        <v>72.36842105263158</v>
       </c>
       <c r="H38">
         <v>75</v>
@@ -39101,10 +39101,10 @@
         <v>14</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G41">
-        <v>11.84210526315789</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="H41">
         <v>49</v>
@@ -39130,19 +39130,19 @@
         <v>22</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42">
-        <v>3.947368421052631</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G42">
-        <v>3.947368421052631</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H42">
         <v>28</v>
@@ -39168,10 +39168,10 @@
         <v>37</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>9.210526315789473</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E43">
         <v>12</v>
@@ -39206,10 +39206,10 @@
         <v>16</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>18.42105263157895</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E44">
         <v>42</v>
@@ -39244,19 +39244,19 @@
         <v>57</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E45">
         <v>24</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="H45">
         <v>26</v>
@@ -39282,19 +39282,19 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D46">
-        <v>11.84210526315789</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E46">
         <v>34</v>
       </c>
       <c r="F46">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G46">
-        <v>11.84210526315789</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="H46">
         <v>64</v>
@@ -39320,10 +39320,10 @@
         <v>31</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>7.894736842105263</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E47">
         <v>39</v>
@@ -39434,19 +39434,19 @@
         <v>85</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>1.31578947368421</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
       <c r="F50">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="G50">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H50">
         <v>47</v>
@@ -39481,10 +39481,10 @@
         <v>11</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G51">
-        <v>5.263157894736842</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H51">
         <v>34</v>
@@ -39624,19 +39624,19 @@
         <v>48</v>
       </c>
       <c r="C55">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D55">
-        <v>14.47368421052632</v>
+        <v>32.89473684210527</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G55">
-        <v>14.47368421052632</v>
+        <v>32.89473684210527</v>
       </c>
       <c r="H55">
         <v>57</v>
@@ -39738,19 +39738,19 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D58">
-        <v>9.210526315789473</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E58">
         <v>23</v>
       </c>
       <c r="F58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G58">
-        <v>6.578947368421052</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H58">
         <v>35</v>
@@ -39814,10 +39814,10 @@
         <v>27</v>
       </c>
       <c r="C60">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D60">
-        <v>14.47368421052632</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E60">
         <v>26</v>
@@ -39890,10 +39890,10 @@
         <v>57</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>6.578947368421052</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E62">
         <v>22</v>
@@ -40004,19 +40004,19 @@
         <v>27</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E65">
         <v>26</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G65">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H65">
         <v>28</v>
@@ -40092,10 +40092,10 @@
         <v>11</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G67">
-        <v>2.631578947368421</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H67">
         <v>36</v>
@@ -40121,19 +40121,19 @@
         <v>57</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E68">
         <v>26</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G68">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H68">
         <v>28</v>
@@ -40197,19 +40197,19 @@
         <v>85</v>
       </c>
       <c r="C70">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D70">
-        <v>23.68421052631579</v>
+        <v>51.31578947368421</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G70">
-        <v>23.68421052631579</v>
+        <v>51.31578947368421</v>
       </c>
       <c r="H70">
         <v>54</v>
@@ -40235,10 +40235,10 @@
         <v>106</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>2.631578947368421</v>
+        <v>1.31578947368421</v>
       </c>
       <c r="E71">
         <v>26</v>
@@ -40273,10 +40273,10 @@
         <v>31</v>
       </c>
       <c r="C72">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D72">
-        <v>19.73684210526316</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E72">
         <v>22</v>
@@ -40631,19 +40631,19 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D7">
-        <v>14.47368421052632</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="G7">
-        <v>14.47368421052632</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="H7">
         <v>70</v>
@@ -40792,10 +40792,10 @@
         <v>26</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>7.894736842105263</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="H11">
         <v>52</v>
@@ -40859,19 +40859,19 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>9.210526315789473</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>9.210526315789473</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="H13">
         <v>31</v>
@@ -40973,10 +40973,10 @@
         <v>41</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>11.84210526315789</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E16">
         <v>24</v>
@@ -41049,19 +41049,19 @@
         <v>43</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>9.210526315789473</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G18">
-        <v>9.210526315789473</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="H18">
         <v>29</v>
@@ -41087,19 +41087,19 @@
         <v>46</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D19">
-        <v>14.47368421052632</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="G19">
-        <v>14.47368421052632</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="H19">
         <v>70</v>
@@ -41125,19 +41125,19 @@
         <v>48</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>18.42105263157895</v>
+        <v>34.21052631578947</v>
       </c>
       <c r="E20">
         <v>26</v>
       </c>
       <c r="F20">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="G20">
-        <v>38.15789473684211</v>
+        <v>72.36842105263158</v>
       </c>
       <c r="H20">
         <v>75</v>
@@ -41251,10 +41251,10 @@
         <v>12</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>6.578947368421052</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H23">
         <v>34</v>
@@ -41289,10 +41289,10 @@
         <v>17</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G24">
-        <v>10.12658227848101</v>
+        <v>12.65822784810127</v>
       </c>
       <c r="H24">
         <v>47</v>
@@ -41432,19 +41432,19 @@
         <v>24</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D28">
-        <v>27.63157894736842</v>
+        <v>55.26315789473685</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G28">
-        <v>27.63157894736842</v>
+        <v>55.26315789473685</v>
       </c>
       <c r="H28">
         <v>70</v>
@@ -41508,19 +41508,19 @@
         <v>61</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>16.45569620253164</v>
+        <v>8.860759493670885</v>
       </c>
       <c r="E30">
         <v>32</v>
       </c>
       <c r="F30">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G30">
-        <v>17.72151898734177</v>
+        <v>11.39240506329114</v>
       </c>
       <c r="H30">
         <v>55</v>
@@ -41812,19 +41812,19 @@
         <v>16</v>
       </c>
       <c r="C38">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D38">
-        <v>18.42105263157895</v>
+        <v>34.21052631578947</v>
       </c>
       <c r="E38">
         <v>26</v>
       </c>
       <c r="F38">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="G38">
-        <v>38.15789473684211</v>
+        <v>72.36842105263158</v>
       </c>
       <c r="H38">
         <v>75</v>
@@ -41935,10 +41935,10 @@
         <v>14</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G41">
-        <v>11.84210526315789</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="H41">
         <v>49</v>
@@ -41964,19 +41964,19 @@
         <v>22</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="H42">
         <v>28</v>
@@ -42011,10 +42011,10 @@
         <v>12</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G43">
-        <v>10.52631578947368</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H43">
         <v>57</v>
@@ -42078,19 +42078,19 @@
         <v>57</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E45">
         <v>24</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="H45">
         <v>26</v>
@@ -42230,10 +42230,10 @@
         <v>83</v>
       </c>
       <c r="C49">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D49">
-        <v>11.84210526315789</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="E49">
         <v>11</v>
@@ -42268,19 +42268,19 @@
         <v>85</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>1.31578947368421</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="G50">
-        <v>2.631578947368421</v>
+        <v>44.73684210526316</v>
       </c>
       <c r="H50">
         <v>47</v>
@@ -42315,10 +42315,10 @@
         <v>11</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G51">
-        <v>5.263157894736842</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H51">
         <v>34</v>
@@ -42847,10 +42847,10 @@
         <v>26</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G65">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H65">
         <v>28</v>
@@ -42926,10 +42926,10 @@
         <v>11</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G67">
-        <v>2.631578947368421</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H67">
         <v>36</v>
@@ -42964,10 +42964,10 @@
         <v>26</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G68">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H68">
         <v>28</v>
@@ -43031,19 +43031,19 @@
         <v>85</v>
       </c>
       <c r="C70">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D70">
-        <v>23.68421052631579</v>
+        <v>51.31578947368421</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G70">
-        <v>23.68421052631579</v>
+        <v>51.31578947368421</v>
       </c>
       <c r="H70">
         <v>54</v>
@@ -43107,10 +43107,10 @@
         <v>31</v>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D72">
-        <v>9.210526315789473</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E72">
         <v>22</v>
@@ -44152,19 +44152,19 @@
         <v>41</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>7.894736842105263</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G25">
-        <v>7.894736842105263</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -44760,19 +44760,19 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>10.52631578947368</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="E41">
         <v>14</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G41">
-        <v>11.84210526315789</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="H41">
         <v>9</v>
@@ -44836,10 +44836,10 @@
         <v>37</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>5.263157894736842</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E43">
         <v>12</v>
@@ -45406,19 +45406,19 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>3.947368421052631</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E58">
         <v>23</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G58">
-        <v>3.947368421052631</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -45941,19 +45941,19 @@
         <v>31</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D72">
-        <v>6.578947368421052</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="E72">
         <v>22</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G72">
-        <v>7.894736842105263</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="H72">
         <v>6</v>
@@ -46793,10 +46793,10 @@
         <v>48</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>14.47368421052632</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="E20">
         <v>26</v>
@@ -47480,10 +47480,10 @@
         <v>16</v>
       </c>
       <c r="C38">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D38">
-        <v>14.47368421052632</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="E38">
         <v>26</v>
@@ -47594,10 +47594,10 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>10.52631578947368</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="E41">
         <v>14</v>
@@ -47784,19 +47784,19 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>6.578947368421052</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E46">
         <v>34</v>
       </c>
       <c r="F46">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G46">
-        <v>9.210526315789473</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="H46">
         <v>5</v>
@@ -49133,19 +49133,19 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D7">
-        <v>15.78947368421053</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="G7">
-        <v>15.78947368421053</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="H7">
         <v>70</v>
@@ -49294,10 +49294,10 @@
         <v>26</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>7.894736842105263</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="H11">
         <v>52</v>
@@ -49361,19 +49361,19 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>9.210526315789473</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>9.210526315789473</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="H13">
         <v>31</v>
@@ -49475,10 +49475,10 @@
         <v>41</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>10.52631578947368</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E16">
         <v>24</v>
@@ -49551,19 +49551,19 @@
         <v>43</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>9.210526315789473</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G18">
-        <v>9.210526315789473</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="H18">
         <v>29</v>
@@ -49589,19 +49589,19 @@
         <v>46</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D19">
-        <v>15.78947368421053</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="G19">
-        <v>15.78947368421053</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="H19">
         <v>70</v>
@@ -49627,19 +49627,19 @@
         <v>48</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>22.36842105263158</v>
+        <v>34.21052631578947</v>
       </c>
       <c r="E20">
         <v>26</v>
       </c>
       <c r="F20">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G20">
-        <v>44.73684210526316</v>
+        <v>72.36842105263158</v>
       </c>
       <c r="H20">
         <v>75</v>
@@ -49744,19 +49744,19 @@
         <v>20</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>6.578947368421052</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E23">
         <v>12</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>6.578947368421052</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H23">
         <v>34</v>
@@ -49791,10 +49791,10 @@
         <v>17</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G24">
-        <v>10.12658227848101</v>
+        <v>12.65822784810127</v>
       </c>
       <c r="H24">
         <v>47</v>
@@ -49934,19 +49934,19 @@
         <v>24</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D28">
-        <v>27.63157894736842</v>
+        <v>55.26315789473685</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G28">
-        <v>27.63157894736842</v>
+        <v>55.26315789473685</v>
       </c>
       <c r="H28">
         <v>70</v>
@@ -49972,19 +49972,19 @@
         <v>48</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>2.631578947368421</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="E29">
         <v>29</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G29">
-        <v>3.947368421052631</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="H29">
         <v>54</v>
@@ -50010,19 +50010,19 @@
         <v>61</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>13.92405063291139</v>
+        <v>8.860759493670885</v>
       </c>
       <c r="E30">
         <v>32</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30">
-        <v>12.65822784810127</v>
+        <v>11.39240506329114</v>
       </c>
       <c r="H30">
         <v>55</v>
@@ -50086,19 +50086,19 @@
         <v>24</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>5.263157894736842</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G32">
-        <v>3.947368421052631</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="H32">
         <v>35</v>
@@ -50238,19 +50238,19 @@
         <v>69</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E36">
         <v>34</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G36">
-        <v>2.631578947368421</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H36">
         <v>33</v>
@@ -50314,19 +50314,19 @@
         <v>16</v>
       </c>
       <c r="C38">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D38">
-        <v>22.36842105263158</v>
+        <v>34.21052631578947</v>
       </c>
       <c r="E38">
         <v>26</v>
       </c>
       <c r="F38">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G38">
-        <v>44.73684210526316</v>
+        <v>72.36842105263158</v>
       </c>
       <c r="H38">
         <v>75</v>
@@ -50437,10 +50437,10 @@
         <v>14</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G41">
-        <v>11.84210526315789</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="H41">
         <v>49</v>
@@ -50466,19 +50466,19 @@
         <v>22</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="H42">
         <v>28</v>
@@ -50504,19 +50504,19 @@
         <v>37</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>9.210526315789473</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E43">
         <v>12</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G43">
-        <v>10.52631578947368</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H43">
         <v>57</v>
@@ -50580,19 +50580,19 @@
         <v>57</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E45">
         <v>24</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="H45">
         <v>26</v>
@@ -50618,19 +50618,19 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46">
-        <v>5.263157894736842</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E46">
         <v>34</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G46">
-        <v>6.578947368421052</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="H46">
         <v>64</v>
@@ -50694,19 +50694,19 @@
         <v>24</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D48">
-        <v>5.263157894736842</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G48">
-        <v>5.263157894736842</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="H48">
         <v>37</v>
@@ -50770,19 +50770,19 @@
         <v>85</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>1.31578947368421</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="G50">
-        <v>2.631578947368421</v>
+        <v>75</v>
       </c>
       <c r="H50">
         <v>47</v>
@@ -50817,10 +50817,10 @@
         <v>11</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G51">
-        <v>5.263157894736842</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H51">
         <v>34</v>
@@ -50960,19 +50960,19 @@
         <v>48</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D55">
-        <v>5.263157894736842</v>
+        <v>32.89473684210527</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G55">
-        <v>5.263157894736842</v>
+        <v>32.89473684210527</v>
       </c>
       <c r="H55">
         <v>57</v>
@@ -51349,10 +51349,10 @@
         <v>26</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G65">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H65">
         <v>28</v>
@@ -51428,10 +51428,10 @@
         <v>11</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G67">
-        <v>2.631578947368421</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H67">
         <v>36</v>
@@ -51466,10 +51466,10 @@
         <v>26</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G68">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H68">
         <v>28</v>
@@ -51533,19 +51533,19 @@
         <v>85</v>
       </c>
       <c r="C70">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D70">
-        <v>23.68421052631579</v>
+        <v>51.31578947368421</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G70">
-        <v>23.68421052631579</v>
+        <v>51.31578947368421</v>
       </c>
       <c r="H70">
         <v>54</v>
@@ -51609,10 +51609,10 @@
         <v>31</v>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D72">
-        <v>9.210526315789473</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E72">
         <v>22</v>
@@ -51815,19 +51815,19 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>2.631578947368421</v>
+        <v>23.68421052631579</v>
       </c>
       <c r="E3">
         <v>40</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>22.36842105263158</v>
+        <v>34.21052631578947</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -51967,19 +51967,19 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D7">
-        <v>14.47368421052632</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="G7">
-        <v>14.47368421052632</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="H7">
         <v>66</v>
@@ -52423,19 +52423,19 @@
         <v>46</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D19">
-        <v>14.47368421052632</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="G19">
-        <v>14.47368421052632</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="H19">
         <v>66</v>
@@ -52461,19 +52461,19 @@
         <v>48</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>27.63157894736842</v>
+        <v>34.21052631578947</v>
       </c>
       <c r="E20">
         <v>26</v>
       </c>
       <c r="F20">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G20">
-        <v>44.73684210526316</v>
+        <v>72.36842105263158</v>
       </c>
       <c r="H20">
         <v>72</v>
@@ -52768,19 +52768,19 @@
         <v>24</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D28">
-        <v>27.63157894736842</v>
+        <v>55.26315789473685</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G28">
-        <v>27.63157894736842</v>
+        <v>55.26315789473685</v>
       </c>
       <c r="H28">
         <v>66</v>
@@ -52806,19 +52806,19 @@
         <v>48</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>3.947368421052631</v>
+        <v>28.94736842105263</v>
       </c>
       <c r="E29">
         <v>29</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G29">
-        <v>13.1578947368421</v>
+        <v>39.47368421052632</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -53072,10 +53072,10 @@
         <v>69</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>2.631578947368421</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E36">
         <v>34</v>
@@ -53148,19 +53148,19 @@
         <v>16</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D38">
-        <v>27.63157894736842</v>
+        <v>34.21052631578947</v>
       </c>
       <c r="E38">
         <v>26</v>
       </c>
       <c r="F38">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G38">
-        <v>44.73684210526316</v>
+        <v>72.36842105263158</v>
       </c>
       <c r="H38">
         <v>72</v>
@@ -53376,10 +53376,10 @@
         <v>16</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>2.631578947368421</v>
+        <v>19.73684210526316</v>
       </c>
       <c r="E44">
         <v>42</v>
@@ -53452,10 +53452,10 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>6.578947368421052</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="E46">
         <v>34</v>
@@ -53528,19 +53528,19 @@
         <v>24</v>
       </c>
       <c r="C48">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D48">
-        <v>14.47368421052632</v>
+        <v>18.42105263157895</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G48">
-        <v>14.47368421052632</v>
+        <v>18.42105263157895</v>
       </c>
       <c r="H48">
         <v>4</v>
@@ -53604,19 +53604,19 @@
         <v>85</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>1.31578947368421</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
       <c r="F50">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="G50">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -53756,19 +53756,19 @@
         <v>69</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54">
-        <v>2.631578947368421</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E54">
         <v>24</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G54">
-        <v>5.263157894736842</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -53794,19 +53794,19 @@
         <v>48</v>
       </c>
       <c r="C55">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D55">
-        <v>14.47368421052632</v>
+        <v>40.78947368421053</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G55">
-        <v>14.47368421052632</v>
+        <v>40.78947368421053</v>
       </c>
       <c r="H55">
         <v>4</v>
@@ -53870,10 +53870,10 @@
         <v>46</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D57">
-        <v>2.631578947368421</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="E57">
         <v>24</v>
@@ -54367,19 +54367,19 @@
         <v>85</v>
       </c>
       <c r="C70">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D70">
-        <v>23.68421052631579</v>
+        <v>51.31578947368421</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G70">
-        <v>23.68421052631579</v>
+        <v>51.31578947368421</v>
       </c>
       <c r="H70">
         <v>47</v>
@@ -54953,19 +54953,19 @@
         <v>31</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>6.578947368421052</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="E11">
         <v>26</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>7.894736842105263</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="H11">
         <v>6</v>
@@ -55295,19 +55295,19 @@
         <v>48</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>15.78947368421053</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="E20">
         <v>26</v>
       </c>
       <c r="F20">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>18.42105263157895</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="H20">
         <v>16</v>
@@ -55488,19 +55488,19 @@
         <v>41</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>7.894736842105263</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G25">
-        <v>7.894736842105263</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -55640,19 +55640,19 @@
         <v>48</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E29">
         <v>29</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>3.947368421052631</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H29">
         <v>5</v>
@@ -55982,19 +55982,19 @@
         <v>16</v>
       </c>
       <c r="C38">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38">
-        <v>15.78947368421053</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="E38">
         <v>26</v>
       </c>
       <c r="F38">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G38">
-        <v>18.42105263157895</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="H38">
         <v>16</v>
@@ -56096,19 +56096,19 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>10.52631578947368</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="E41">
         <v>14</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G41">
-        <v>11.84210526315789</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="H41">
         <v>9</v>
@@ -56134,19 +56134,19 @@
         <v>22</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>2.631578947368421</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G42">
-        <v>2.631578947368421</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -56172,19 +56172,19 @@
         <v>37</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>5.263157894736842</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E43">
         <v>12</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G43">
-        <v>6.578947368421052</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H43">
         <v>6</v>
@@ -56742,19 +56742,19 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D58">
-        <v>5.263157894736842</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="E58">
         <v>23</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G58">
-        <v>5.263157894736842</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H58">
         <v>5</v>
@@ -56818,19 +56818,19 @@
         <v>27</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>3.947368421052631</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E60">
         <v>26</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G60">
-        <v>3.947368421052631</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="H60">
         <v>5</v>
@@ -57277,19 +57277,19 @@
         <v>31</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D72">
-        <v>6.578947368421052</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="E72">
         <v>22</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G72">
-        <v>7.894736842105263</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="H72">
         <v>6</v>
@@ -57483,10 +57483,10 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E3">
         <v>40</v>
@@ -59091,10 +59091,10 @@
         <v>24</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -59234,10 +59234,10 @@
         <v>83</v>
       </c>
       <c r="C49">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D49">
-        <v>11.84210526315789</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="E49">
         <v>11</v>
@@ -60317,19 +60317,19 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>2.631578947368421</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="E3">
         <v>40</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>3.947368421052631</v>
+        <v>22.36842105263158</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -60963,10 +60963,10 @@
         <v>48</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>11.84210526315789</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="E20">
         <v>26</v>
@@ -61308,19 +61308,19 @@
         <v>48</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>2.631578947368421</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E29">
         <v>29</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G29">
-        <v>3.947368421052631</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -61574,19 +61574,19 @@
         <v>69</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E36">
         <v>34</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G36">
-        <v>2.631578947368421</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -61650,10 +61650,10 @@
         <v>16</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>11.84210526315789</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="E38">
         <v>26</v>
@@ -61764,10 +61764,10 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D41">
-        <v>13.1578947368421</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="E41">
         <v>14</v>
@@ -61878,19 +61878,19 @@
         <v>16</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>2.631578947368421</v>
+        <v>19.73684210526316</v>
       </c>
       <c r="E44">
         <v>42</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G44">
-        <v>3.947368421052631</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -61954,19 +61954,19 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>5.263157894736842</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="E46">
         <v>34</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G46">
-        <v>6.578947368421052</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="H46">
         <v>5</v>
@@ -62258,19 +62258,19 @@
         <v>69</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54">
-        <v>2.631578947368421</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E54">
         <v>24</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G54">
-        <v>2.631578947368421</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -62296,19 +62296,19 @@
         <v>48</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>5.263157894736842</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G55">
-        <v>5.263157894736842</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H55">
         <v>4</v>
@@ -62372,19 +62372,19 @@
         <v>46</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57">
-        <v>2.631578947368421</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E57">
         <v>24</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G57">
-        <v>3.947368421052631</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -64598,10 +64598,10 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>15.78947368421053</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="E41">
         <v>14</v>
@@ -64902,10 +64902,10 @@
         <v>83</v>
       </c>
       <c r="C49">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D49">
-        <v>11.84210526315789</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="E49">
         <v>11</v>
@@ -67432,19 +67432,19 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D41">
-        <v>13.1578947368421</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="E41">
         <v>14</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G41">
-        <v>11.84210526315789</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="H41">
         <v>9</v>
@@ -68078,10 +68078,10 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58">
-        <v>3.947368421052631</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E58">
         <v>23</v>
@@ -69465,19 +69465,19 @@
         <v>48</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>14.47368421052632</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="E20">
         <v>26</v>
       </c>
       <c r="F20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>17.10526315789474</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="H20">
         <v>16</v>
@@ -69658,19 +69658,19 @@
         <v>41</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>7.894736842105263</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G25">
-        <v>7.894736842105263</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -70152,19 +70152,19 @@
         <v>16</v>
       </c>
       <c r="C38">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38">
-        <v>14.47368421052632</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="E38">
         <v>26</v>
       </c>
       <c r="F38">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G38">
-        <v>17.10526315789474</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="H38">
         <v>16</v>
@@ -70266,19 +70266,19 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>10.52631578947368</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="E41">
         <v>14</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G41">
-        <v>11.84210526315789</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="H41">
         <v>9</v>
@@ -70342,19 +70342,19 @@
         <v>37</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>5.263157894736842</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E43">
         <v>12</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G43">
-        <v>6.578947368421052</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H43">
         <v>6</v>
@@ -70912,19 +70912,19 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D58">
-        <v>5.263157894736842</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="E58">
         <v>23</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G58">
-        <v>5.263157894736842</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H58">
         <v>5</v>
@@ -71409,19 +71409,19 @@
         <v>106</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>1.31578947368421</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E71">
         <v>26</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71">
-        <v>1.31578947368421</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -71447,19 +71447,19 @@
         <v>31</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D72">
-        <v>6.578947368421052</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="E72">
         <v>22</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G72">
-        <v>7.894736842105263</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="H72">
         <v>7</v>
@@ -71881,19 +71881,19 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E9">
         <v>28</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -72606,19 +72606,19 @@
         <v>24</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>7.894736842105263</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G28">
-        <v>7.894736842105263</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="H28">
         <v>6</v>
@@ -73138,19 +73138,19 @@
         <v>22</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42">
-        <v>2.631578947368421</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G42">
-        <v>2.631578947368421</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -73176,19 +73176,19 @@
         <v>37</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>5.263157894736842</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E43">
         <v>12</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G43">
-        <v>6.578947368421052</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H43">
         <v>6</v>
@@ -73252,19 +73252,19 @@
         <v>57</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E45">
         <v>24</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -73755,10 +73755,10 @@
         <v>23</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G58">
-        <v>5.263157894736842</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H58">
         <v>4</v>
@@ -77473,19 +77473,19 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>15.78947368421053</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G7">
-        <v>15.78947368421053</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="H7">
         <v>70</v>
@@ -77634,10 +77634,10 @@
         <v>26</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>7.894736842105263</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="H11">
         <v>52</v>
@@ -77929,19 +77929,19 @@
         <v>46</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>15.78947368421053</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G19">
-        <v>15.78947368421053</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="H19">
         <v>70</v>
@@ -77967,19 +77967,19 @@
         <v>48</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>22.36842105263158</v>
+        <v>18.42105263157895</v>
       </c>
       <c r="E20">
         <v>26</v>
       </c>
       <c r="F20">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G20">
-        <v>44.73684210526316</v>
+        <v>64.47368421052632</v>
       </c>
       <c r="H20">
         <v>75</v>
@@ -78131,10 +78131,10 @@
         <v>17</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G24">
-        <v>10.12658227848101</v>
+        <v>17.72151898734177</v>
       </c>
       <c r="H24">
         <v>47</v>
@@ -78160,19 +78160,19 @@
         <v>41</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>7.894736842105263</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G25">
-        <v>7.894736842105263</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="H25">
         <v>48</v>
@@ -78274,19 +78274,19 @@
         <v>24</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>27.63157894736842</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G28">
-        <v>27.63157894736842</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="H28">
         <v>70</v>
@@ -78625,10 +78625,10 @@
         <v>24</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G37">
-        <v>12.65822784810127</v>
+        <v>18.9873417721519</v>
       </c>
       <c r="H37">
         <v>47</v>
@@ -78654,19 +78654,19 @@
         <v>16</v>
       </c>
       <c r="C38">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D38">
-        <v>22.36842105263158</v>
+        <v>18.42105263157895</v>
       </c>
       <c r="E38">
         <v>26</v>
       </c>
       <c r="F38">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G38">
-        <v>44.73684210526316</v>
+        <v>64.47368421052632</v>
       </c>
       <c r="H38">
         <v>75</v>
@@ -78768,19 +78768,19 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>10.52631578947368</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="E41">
         <v>14</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G41">
-        <v>11.84210526315789</v>
+        <v>18.42105263157895</v>
       </c>
       <c r="H41">
         <v>49</v>
@@ -78853,10 +78853,10 @@
         <v>12</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G43">
-        <v>10.52631578947368</v>
+        <v>18.42105263157895</v>
       </c>
       <c r="H43">
         <v>57</v>
@@ -78929,10 +78929,10 @@
         <v>24</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H45">
         <v>26</v>
@@ -79157,10 +79157,10 @@
         <v>11</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G51">
-        <v>5.263157894736842</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="H51">
         <v>34</v>
@@ -79452,19 +79452,19 @@
         <v>22</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G59">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H59">
         <v>28</v>
@@ -79604,19 +79604,19 @@
         <v>43</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G63">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H63">
         <v>28</v>
@@ -79689,10 +79689,10 @@
         <v>26</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G65">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H65">
         <v>28</v>
@@ -79806,10 +79806,10 @@
         <v>26</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G68">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H68">
         <v>28</v>
@@ -79873,19 +79873,19 @@
         <v>85</v>
       </c>
       <c r="C70">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D70">
-        <v>23.68421052631579</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G70">
-        <v>23.68421052631579</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="H70">
         <v>54</v>
@@ -79949,19 +79949,19 @@
         <v>31</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D72">
-        <v>6.578947368421052</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="E72">
         <v>22</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G72">
-        <v>7.894736842105263</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="H72">
         <v>55</v>
@@ -80307,19 +80307,19 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>15.78947368421053</v>
+        <v>19.73684210526316</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>15.78947368421053</v>
+        <v>19.73684210526316</v>
       </c>
       <c r="H7">
         <v>70</v>
@@ -80459,19 +80459,19 @@
         <v>31</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>6.578947368421052</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="E11">
         <v>26</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>7.894736842105263</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="H11">
         <v>52</v>
@@ -80763,19 +80763,19 @@
         <v>46</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>15.78947368421053</v>
+        <v>19.73684210526316</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G19">
-        <v>15.78947368421053</v>
+        <v>19.73684210526316</v>
       </c>
       <c r="H19">
         <v>70</v>
@@ -80801,19 +80801,19 @@
         <v>48</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>30.26315789473684</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="E20">
         <v>26</v>
       </c>
       <c r="F20">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G20">
-        <v>47.36842105263158</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="H20">
         <v>75</v>
@@ -80965,10 +80965,10 @@
         <v>17</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G24">
-        <v>10.12658227848101</v>
+        <v>20.25316455696203</v>
       </c>
       <c r="H24">
         <v>47</v>
@@ -80994,19 +80994,19 @@
         <v>41</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>7.894736842105263</v>
+        <v>19.73684210526316</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G25">
-        <v>7.894736842105263</v>
+        <v>19.73684210526316</v>
       </c>
       <c r="H25">
         <v>48</v>
@@ -81108,19 +81108,19 @@
         <v>24</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>27.63157894736842</v>
+        <v>19.73684210526316</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G28">
-        <v>27.63157894736842</v>
+        <v>19.73684210526316</v>
       </c>
       <c r="H28">
         <v>70</v>
@@ -81146,19 +81146,19 @@
         <v>48</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E29">
         <v>29</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>3.947368421052631</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H29">
         <v>54</v>
@@ -81459,10 +81459,10 @@
         <v>24</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G37">
-        <v>12.65822784810127</v>
+        <v>18.9873417721519</v>
       </c>
       <c r="H37">
         <v>47</v>
@@ -81488,19 +81488,19 @@
         <v>16</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>30.26315789473684</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="E38">
         <v>26</v>
       </c>
       <c r="F38">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G38">
-        <v>47.36842105263158</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="H38">
         <v>75</v>
@@ -81602,19 +81602,19 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>10.52631578947368</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="E41">
         <v>14</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G41">
-        <v>11.84210526315789</v>
+        <v>19.73684210526316</v>
       </c>
       <c r="H41">
         <v>49</v>
@@ -81640,19 +81640,19 @@
         <v>22</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42">
-        <v>3.947368421052631</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G42">
-        <v>3.947368421052631</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="H42">
         <v>28</v>
@@ -81687,10 +81687,10 @@
         <v>12</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G43">
-        <v>10.52631578947368</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="H43">
         <v>57</v>
@@ -81763,10 +81763,10 @@
         <v>24</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H45">
         <v>26</v>
@@ -81991,10 +81991,10 @@
         <v>11</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G51">
-        <v>5.263157894736842</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="H51">
         <v>34</v>
@@ -82257,10 +82257,10 @@
         <v>23</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G58">
-        <v>3.947368421052631</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H58">
         <v>35</v>
@@ -82286,19 +82286,19 @@
         <v>22</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G59">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H59">
         <v>28</v>
@@ -82333,10 +82333,10 @@
         <v>26</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G60">
-        <v>3.947368421052631</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H60">
         <v>31</v>
@@ -82438,19 +82438,19 @@
         <v>43</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G63">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H63">
         <v>28</v>
@@ -82523,10 +82523,10 @@
         <v>26</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G65">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H65">
         <v>28</v>
@@ -82640,10 +82640,10 @@
         <v>26</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G68">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H68">
         <v>28</v>
@@ -82707,19 +82707,19 @@
         <v>85</v>
       </c>
       <c r="C70">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D70">
-        <v>23.68421052631579</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G70">
-        <v>23.68421052631579</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="H70">
         <v>54</v>
@@ -82792,10 +82792,10 @@
         <v>22</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G72">
-        <v>7.894736842105263</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="H72">
         <v>55</v>
@@ -82989,19 +82989,19 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E3">
         <v>40</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>3.947368421052631</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -84559,10 +84559,10 @@
         <v>42</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G44">
-        <v>3.947368421052631</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -84626,19 +84626,19 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46">
-        <v>5.263157894736842</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E46">
         <v>34</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G46">
-        <v>6.578947368421052</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="H46">
         <v>5</v>
